--- a/Test_Scripts/ROC_Output/ROC_Curves.xlsx
+++ b/Test_Scripts/ROC_Output/ROC_Curves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerFolders\Uni\Master\3. Semester\Autonomous Flight of Micro Air Vehicles\Individual Assignment\MAV_Individual\Test_Scripts\ROC_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7FE26-EC2D-401D-AC73-04B3AC31A792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B40A3-FC38-4B97-ABF5-7C26CBF05155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="1" r:id="rId1"/>
@@ -3576,9 +3576,46 @@
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3589,7 +3626,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Step Size'!$B$1:$B$1</c:f>
+              <c:f>'Step Size'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3599,15 +3636,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28800">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3750,7 +3800,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD87-44E9-A52A-DEF097E530A5}"/>
+              <c16:uniqueId val="{00000000-16B7-4956-88EF-05D3A13E9250}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3759,7 +3809,190 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Step Size'!$D$1:$D$1</c:f>
+              <c:f>'Step Size'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Step Size'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Step Size'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6.9328863944232797E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8459483488884998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5002952744886598E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0148099048031303E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0927684338977001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4059520433181203E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4579632684133702E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4612868556672204E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2238544469364202E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2200072489187299E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3509087737105901E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.23284096040243E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0626728265371997E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0962753432274404E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5118830489120102E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4930318952424003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9074554709278305E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9074554709278305E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9074554709278305E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3623734004799E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16B7-4956-88EF-05D3A13E9250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Step Size'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3769,15 +4002,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28800">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF420E"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3920,7 +4166,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD87-44E9-A52A-DEF097E530A5}"/>
+              <c16:uniqueId val="{00000002-16B7-4956-88EF-05D3A13E9250}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3932,11 +4178,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317329096"/>
-        <c:axId val="317326472"/>
+        <c:axId val="312181648"/>
+        <c:axId val="307771504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317326472"/>
+        <c:axId val="312181648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307771504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307771504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3944,11 +4252,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3956,83 +4269,76 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317329096"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="317329096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="317326472"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="312181648"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0"/>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -4040,13 +4346,40 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4588,6 +4921,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5659,6 +6032,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
@@ -5733,15 +6622,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="3287522" y="198374"/>
-    <xdr:ext cx="5759577" cy="3239643"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD72810-B6BD-4257-A514-05D5A7F16B8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34AE2E5F-5DBD-4930-B9CB-E8E50F49A2CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5758,7 +6657,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6092,7 +6991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +8656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
